--- a/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0,69; 6,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,88; 7,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>1,87; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>1,93; 11,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>2,34; 11,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>6,34; 13,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,0; 2,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>1,73; 6,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>2,07; 7,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>5,16; 10,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,81; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,76; 3,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,32; 3,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,24; 9,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,84; 3,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,29; 6,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,88; 11,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>10,61; 14,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,93; 2,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,33; 4,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,56; 7,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,63; 11,57</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,91; 2,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,53; 1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,61; 3,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,68; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,19; 9,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,41; 7,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>8,03; 11,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,82; 3,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,55; 5,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,28; 5,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>5,62; 7,67</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,96; 3,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,34; 4,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,42; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,47; 6,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>3,94; 7,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,85; 7,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,16; 9,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>5,48; 10,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,8; 4,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>2,92; 5,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,66; 6,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,14; 8,12</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,06; 4,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,98; 4,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,18; 4,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,81; 7,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,33; 7,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,08; 8,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,12; 11,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>10,17; 14,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,61; 5,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,93; 5,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,1; 7,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,17; 10,63</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,57; 2,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,52; 2,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,55; 6,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,54; 7,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,7; 8,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,27; 11,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,71; 3,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,75; 4,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,62; 5,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,56; 2,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,17</t>
+          <t>1,0; 3,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,72</t>
+          <t>1,42; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,36</t>
+          <t>4,97; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,87; 2,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 11,51</t>
+          <t>3,52; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,22</t>
+          <t>6,45; 10,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,95</t>
+          <t>10,34; 14,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,95; 2,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,97</t>
+          <t>2,49; 4,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,45</t>
+          <t>4,39; 6,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,89</t>
+          <t>8,36; 10,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,88</t>
+          <t>0,91; 2,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,03</t>
+          <t>0,53; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,87</t>
+          <t>1,61; 3,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,46</t>
+          <t>1,53; 4,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,14</t>
+          <t>2,29; 4,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,66</t>
+          <t>6,19; 9,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,85</t>
+          <t>4,41; 7,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,85</t>
+          <t>8,07; 11,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,43</t>
+          <t>1,82; 3,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 4,43</t>
+          <t>3,55; 5,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,46</t>
+          <t>3,28; 5,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,57</t>
+          <t>3,98; 7,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,72</t>
+          <t>0,96; 3,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,89</t>
+          <t>1,34; 4,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,66</t>
+          <t>1,42; 3,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,93</t>
+          <t>3,35; 6,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>3,94; 7,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,59</t>
+          <t>3,85; 7,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,26</t>
+          <t>5,16; 9,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 11,04</t>
+          <t>3,86; 9,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,24</t>
+          <t>2,8; 4,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,43</t>
+          <t>2,92; 5,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,12</t>
+          <t>3,66; 6,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,67</t>
+          <t>3,86; 7,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>8,78%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,22</t>
+          <t>2,06; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,25</t>
+          <t>1,98; 4,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,86</t>
+          <t>2,18; 4,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,77</t>
+          <t>4,85; 8,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,32</t>
+          <t>4,33; 7,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,15</t>
+          <t>5,08; 8,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,08</t>
+          <t>7,12; 11,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,57</t>
+          <t>8,67; 12,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,89</t>
+          <t>3,61; 5,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,13</t>
+          <t>3,93; 5,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,03</t>
+          <t>5,1; 7,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 8,12</t>
+          <t>7,53; 10,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,11</t>
+          <t>1,57; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,46</t>
+          <t>1,52; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,46</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,92</t>
+          <t>3,72; 5,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,32</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,12</t>
+          <t>5,54; 7,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,07</t>
+          <t>6,7; 8,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,05</t>
+          <t>7,9; 10,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,44</t>
+          <t>2,71; 3,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 5,97</t>
+          <t>3,75; 4,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,49</t>
+          <t>4,62; 5,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 10,63</t>
+          <t>6,41; 8,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 2,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 2,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 3,33</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 6,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 4,9</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,54; 7,11</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 8,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,27; 11,49</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 3,52</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 4,76</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 5,7</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,33</t>
+          <t>0,57; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,14</t>
+          <t>1,03; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,98</t>
+          <t>1,4; 3,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,57</t>
+          <t>5,16; 8,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,9</t>
+          <t>0,94; 2,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,8</t>
+          <t>3,47; 6,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,83</t>
+          <t>6,7; 11,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 14,05</t>
+          <t>10,62; 14,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,28</t>
+          <t>0,9; 2,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,37</t>
+          <t>2,47; 4,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,98</t>
+          <t>4,39; 6,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,93</t>
+          <t>8,22; 10,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,72</t>
+          <t>0,9; 2,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,89</t>
+          <t>0,53; 1,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,66</t>
+          <t>1,58; 3,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,27</t>
+          <t>1,59; 4,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,75</t>
+          <t>2,28; 4,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,59</t>
+          <t>6,09; 9,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,26</t>
+          <t>4,42; 7,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 11,04</t>
+          <t>8,04; 10,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,24</t>
+          <t>1,85; 3,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,43</t>
+          <t>3,54; 5,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,12</t>
+          <t>3,16; 4,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 7,11</t>
+          <t>3,92; 7,09</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,22</t>
+          <t>1,07; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,25</t>
+          <t>1,35; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,86</t>
+          <t>1,48; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,57</t>
+          <t>3,45; 6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,32</t>
+          <t>4,01; 7,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,15</t>
+          <t>3,8; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,08</t>
+          <t>5,13; 8,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,91</t>
+          <t>3,46; 9,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,89</t>
+          <t>2,79; 4,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,13</t>
+          <t>2,95; 5,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,03</t>
+          <t>3,74; 5,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,46</t>
+          <t>3,75; 7,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,11</t>
+          <t>2,06; 4,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,46</t>
+          <t>1,86; 4,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,46</t>
+          <t>2,05; 4,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,07</t>
+          <t>4,76; 7,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,32</t>
+          <t>4,39; 7,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,12</t>
+          <t>5,16; 8,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,07</t>
+          <t>7,15; 11,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 12,94</t>
+          <t>8,76; 13,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,44</t>
+          <t>3,54; 5,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 5,97</t>
+          <t>3,87; 5,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,49</t>
+          <t>5,16; 7,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,03</t>
+          <t>7,57; 10,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,55</t>
+          <t>1,54; 2,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,61</t>
+          <t>1,54; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,33</t>
+          <t>2,17; 3,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,71</t>
+          <t>3,79; 5,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,9</t>
+          <t>3,46; 4,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,11</t>
+          <t>5,44; 7,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 8,52</t>
+          <t>6,62; 8,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,98</t>
+          <t>8,32; 10,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,52</t>
+          <t>2,71; 3,54</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 4,76</t>
+          <t>3,71; 4,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 5,7</t>
+          <t>4,59; 5,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,16</t>
+          <t>6,39; 8,13</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8604</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12716</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16653</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>42129</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11514</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>33855</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57631</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>82541</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>20118</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>46571</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74284</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>124670</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3959; 15390</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7196; 21864</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9473; 25353</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32790; 55199</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6486; 19489</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24032; 46012</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45080; 74880</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71720; 94790</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12423; 29888</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34372; 60698</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59186; 93949</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>107657; 143107</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15934</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10785</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25344</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35301</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32013</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>78818</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59375</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>91105</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>47947</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89603</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84719</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>126405</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8611; 25330</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5360; 19447</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16113; 38035</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18930; 50695</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22108; 45368</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62585; 98323</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46065; 75978</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>76978; 105075</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35721; 65039</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>72248; 109749</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>65200; 102358</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>84329; 152530</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12549</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18431</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18326</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33294</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37602</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41907</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55098</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66224</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50151</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60338</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73423</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99518</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7232; 22252</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10211; 31111</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11243; 29234</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24275; 44693</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27437; 51092</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29504; 58062</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40241; 70288</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32241; 91872</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38042; 64170</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45228; 78881</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>57810; 92226</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>61377; 121841</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27837</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28090</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29701</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>57059</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>59543</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>68379</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94378</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>120049</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87380</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>96469</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>124079</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>177108</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19387; 40024</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17597; 40645</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19235; 41357</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>44133; 72940</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>45622; 76607</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>54112; 84899</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74605; 117376</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95608; 144260</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70204; 107485</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77090; 118081</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>102181; 148729</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>152832; 203572</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>70022</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90024</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>167783</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>140672</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>222959</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>266481</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>359919</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>292981</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>356505</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>527702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>50520; 80965</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>52781; 90023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73728; 112248</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>131136; 196992</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>116772; 164191</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>192835; 254178</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>234670; 297806</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>304452; 401918</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>180172; 235616</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>258055; 326046</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>318409; 399037</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>455011; 578475</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>